--- a/backup_1_9/plotQtdCriteria.xlsx
+++ b/backup_1_9/plotQtdCriteria.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="plotQtdCriteria" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -493,8 +493,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,19 +599,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.84333333333333305</c:v>
+                  <c:v>0.855151515151515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82077595851993101</c:v>
+                  <c:v>0.81520800909731705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89028951766254805</c:v>
+                  <c:v>0.89058884085795698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88699761797919696</c:v>
+                  <c:v>0.88662518804805002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.94909090909090899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,19 +662,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82950000000000002</c:v>
+                  <c:v>0.80999999999999905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77664232037488801</c:v>
+                  <c:v>0.85421984761270398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82229119172884202</c:v>
+                  <c:v>0.89640639097119501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82536116021852401</c:v>
+                  <c:v>0.89639866201201601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90033333333333299</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,50 +725,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.96438289636824404</c:v>
+                  <c:v>0.96464962126200904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91467204085895304</c:v>
+                  <c:v>0.90388351848534998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93160531444417005</c:v>
+                  <c:v>0.93212189933187395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94072727440781301</c:v>
+                  <c:v>0.94037570987261998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.985117836338403</c:v>
+                  <c:v>0.97955549955590704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80164352"/>
-        <c:axId val="74258688"/>
+        <c:axId val="48329472"/>
+        <c:axId val="48331008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80164352"/>
+        <c:axId val="48329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74258688"/>
+        <c:crossAx val="48331008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74258688"/>
+        <c:axId val="48331008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.70000000000000007"/>
+          <c:min val="0.70000000000000018"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80164352"/>
+        <c:crossAx val="48329472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,7 +781,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -842,41 +843,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.8237057218351699E-2</c:v>
+                  <c:v>2.09865996250529E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1068649939836901E-2</c:v>
+                  <c:v>2.2931774166958199E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5214914539355501E-2</c:v>
+                  <c:v>1.6170490914047202E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4086308354647E-2</c:v>
+                  <c:v>1.55172646863321E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26663504901768E-2</c:v>
+                  <c:v>1.26835327477658E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="109925504"/>
-        <c:axId val="102894208"/>
+        <c:axId val="48343296"/>
+        <c:axId val="48345088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109925504"/>
+        <c:axId val="48343296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102894208"/>
+        <c:crossAx val="48345088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102894208"/>
+        <c:axId val="48345088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +885,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109925504"/>
+        <c:crossAx val="48343296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,7 +898,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -907,16 +908,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1256,7 +1257,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1266,28 +1267,28 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>1.8237057218351699E-2</v>
-      </c>
-      <c r="C1">
-        <v>3.23968610303076E-3</v>
+        <v>2.09865996250529E-2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>64048999563.880798</v>
       </c>
       <c r="D1">
-        <v>0.84333333333333305</v>
+        <v>0.855151515151515</v>
       </c>
       <c r="E1">
-        <v>0.193275853524322</v>
+        <v>0.204846691761921</v>
       </c>
       <c r="F1">
-        <v>0.82950000000000002</v>
+        <v>0.80999999999999905</v>
       </c>
       <c r="G1">
-        <v>0.24112341238461199</v>
+        <v>0.268700576850888</v>
       </c>
       <c r="H1">
-        <v>0.96438289636824404</v>
+        <v>0.96464962126200904</v>
       </c>
       <c r="I1">
-        <v>4.9827050765506697E-2</v>
+        <v>4.9992985046292002E-2</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1295,28 +1296,28 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.1068649939836901E-2</v>
+        <v>2.2931774166958199E-2</v>
       </c>
       <c r="C2">
-        <v>1.5151548437227999E-2</v>
+        <v>1.6146803710260602E-2</v>
       </c>
       <c r="D2">
-        <v>0.82077595851993101</v>
+        <v>0.81520800909731705</v>
       </c>
       <c r="E2">
-        <v>0.19924523745690001</v>
+        <v>0.20132728674488101</v>
       </c>
       <c r="F2">
-        <v>0.77664232037488801</v>
+        <v>0.85421984761270398</v>
       </c>
       <c r="G2">
-        <v>0.16983494525634299</v>
+        <v>0.133759827044514</v>
       </c>
       <c r="H2">
-        <v>0.91467204085895304</v>
+        <v>0.90388351848534998</v>
       </c>
       <c r="I2">
-        <v>0.103509129752381</v>
+        <v>9.8501650956476894E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1324,28 +1325,28 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.5214914539355501E-2</v>
+        <v>1.6170490914047202E-2</v>
       </c>
       <c r="C3">
-        <v>9.45104152502034E-3</v>
+        <v>1.03050474808142E-2</v>
       </c>
       <c r="D3">
-        <v>0.89028951766254805</v>
+        <v>0.89058884085795698</v>
       </c>
       <c r="E3">
-        <v>0.109499129426851</v>
+        <v>0.10344453290089101</v>
       </c>
       <c r="F3">
-        <v>0.82229119172884202</v>
+        <v>0.89640639097119501</v>
       </c>
       <c r="G3">
-        <v>0.13452598952720299</v>
+        <v>9.6751885639587004E-2</v>
       </c>
       <c r="H3">
-        <v>0.93160531444417005</v>
+        <v>0.93212189933187395</v>
       </c>
       <c r="I3">
-        <v>8.1411798160992296E-2</v>
+        <v>7.7350965458864995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1353,28 +1354,28 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.4086308354647E-2</v>
+        <v>1.55172646863321E-2</v>
       </c>
       <c r="C4">
-        <v>1.33313915198523E-2</v>
+        <v>1.3925957351606099E-2</v>
       </c>
       <c r="D4">
-        <v>0.88699761797919696</v>
+        <v>0.88662518804805002</v>
       </c>
       <c r="E4">
-        <v>0.12191722367234401</v>
+        <v>0.116588223474879</v>
       </c>
       <c r="F4">
-        <v>0.82536116021852401</v>
+        <v>0.89639866201201601</v>
       </c>
       <c r="G4">
-        <v>0.13765944930576701</v>
+        <v>0.10298873410117899</v>
       </c>
       <c r="H4">
-        <v>0.94072727440781301</v>
+        <v>0.94037570987261998</v>
       </c>
       <c r="I4">
-        <v>7.4781459223855207E-2</v>
+        <v>7.3761035518276202E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1382,25 +1383,25 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.26663504901768E-2</v>
+        <v>1.26835327477658E-2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.96</v>
+        <v>0.94909090909090899</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.90033333333333299</v>
+        <v>0.96</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.985117836338403</v>
+        <v>0.97955549955590704</v>
       </c>
       <c r="I5">
         <v>0</v>
